--- a/z/data/model/QC_Chart _pH_66_01_2014_015.xlsx
+++ b/z/data/model/QC_Chart _pH_66_01_2014_015.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E404EF77-6D8C-42B3-B320-0C91668E40C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871B65B9-9E64-4385-B0A5-5D66CAD781E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -234,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Chemical Name</t>
   </si>
@@ -354,28 +356,13 @@
     <t>补充说明</t>
   </si>
   <si>
-    <t>1.B列与结果中的单号名称要一致,包括大小写</t>
-  </si>
-  <si>
     <t>如：Paint,0.1,25和M BS</t>
-  </si>
-  <si>
-    <t>2.C列为该单号的元素测试</t>
   </si>
   <si>
     <t>如：M BS中的Pb元素的数值</t>
   </si>
   <si>
-    <t>3.B列中Date填的是日期</t>
-  </si>
-  <si>
     <t>注意：由于CC每天可以测试多个，而质控每天只要一个，镍释放并不是每天都有，所以这些日期是不一样的</t>
-  </si>
-  <si>
-    <t>4.C列与B列Date通行的与B列其中一个单号一致</t>
-  </si>
-  <si>
-    <t>由于上述原因，当C列Date行为M BS时，填写的是M BS的日期；如果C列Date行为CC,那填写的是CC的日期</t>
   </si>
   <si>
     <t>5.所有有质量或者稀释的测试都用逗号隔开</t>
@@ -408,7 +395,26 @@
     <t>4.某天一次</t>
   </si>
   <si>
-    <t>如:ECO中Pb，由于与镍释放不一定一样，B列需要添加两行Date和ECO，C列添加ECO和Pb，同样引用</t>
+    <t>1.Materail列与结果中的单号名称要一致,包括大小写</t>
+  </si>
+  <si>
+    <t>2.Element列为该单号的元素测试</t>
+  </si>
+  <si>
+    <t>3.Materail列中Date填的是日期</t>
+  </si>
+  <si>
+    <t>4.Element列与Materail列Date通行的与Materail列其中一个单号一致</t>
+  </si>
+  <si>
+    <t>由于上述原因，当Element列Date行为M BS时，填写的是M BS的日期；如果Element列Date行为CC,那填写的是CC的日期</t>
+  </si>
+  <si>
+    <t>如:ECO中Pb，由于与镍释放不一定一样，Materail列需要添加两行Date和ECO，Element列添加ECO和Pb，同样引用</t>
+  </si>
+  <si>
+    <t>6.第一行名称不能变，也不能重复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -416,16 +422,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="167" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -458,7 +464,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -533,7 +539,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -541,7 +547,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -915,7 +921,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,13 +939,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,20 +999,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,17 +1066,23 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3848,19 +3869,19 @@
   <dimension ref="A1:BDQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A5" sqref="A5:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="40"/>
+    <col min="3" max="3" width="34.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" customWidth="1"/>
     <col min="125" max="125" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1473" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1473" s="31" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
@@ -5345,7 +5366,7 @@
       <c r="BDP1" s="30"/>
       <c r="BDQ1" s="30"/>
     </row>
-    <row r="2" spans="1:1473" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:1473" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -6830,7 +6851,7 @@
       <c r="BDP2" s="30"/>
       <c r="BDQ2" s="30"/>
     </row>
-    <row r="3" spans="1:1473" s="20" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:1473" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -8315,7 +8336,7 @@
       <c r="BDP3" s="23"/>
       <c r="BDQ3" s="24"/>
     </row>
-    <row r="4" spans="1:1473" ht="15.75">
+    <row r="4" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
       <c r="Y4" s="7"/>
       <c r="IL4" s="6"/>
       <c r="IM4" s="6"/>
@@ -8393,26 +8414,27 @@
       <c r="LG4" s="6"/>
       <c r="LH4" s="6"/>
     </row>
-    <row r="5" spans="1:1473" ht="15.75">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
       <c r="IL5" s="7"/>
       <c r="IM5" s="7"/>
       <c r="IN5" s="7"/>
@@ -8610,234 +8632,247 @@
       <c r="PX5" s="7"/>
       <c r="PY5" s="7"/>
     </row>
-    <row r="6" spans="1:1473">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+    </row>
+    <row r="7" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
     </row>
-    <row r="7" spans="1:1473">
-      <c r="A7" s="59" t="s">
+    <row r="8" spans="1:1473" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="1:1473" ht="16.5" thickBot="1">
-      <c r="A8" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
       <c r="BCH8" s="5"/>
     </row>
-    <row r="9" spans="1:1473">
-      <c r="A9" s="59" t="s">
+    <row r="9" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+    </row>
+    <row r="11" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
+    </row>
+    <row r="12" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+    </row>
+    <row r="13" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
     </row>
-    <row r="10" spans="1:1473">
-      <c r="A10" s="59" t="s">
+    <row r="14" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
     </row>
-    <row r="11" spans="1:1473">
-      <c r="A11" s="58" t="s">
+    <row r="15" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
     </row>
-    <row r="12" spans="1:1473">
-      <c r="A12" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59" t="s">
+    <row r="16" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
     </row>
-    <row r="13" spans="1:1473">
-      <c r="A13" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-    </row>
-    <row r="14" spans="1:1473">
-      <c r="A14" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-    </row>
-    <row r="15" spans="1:1473">
-      <c r="A15" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-    </row>
-    <row r="16" spans="1:1473">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-    </row>
-    <row r="17" spans="3:4" ht="15.75" thickBot="1"/>
-    <row r="18" spans="3:4" ht="15.75" thickBot="1">
+    <row r="17" spans="3:4" ht="13.9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:4" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="8" t="s">
         <v>9</v>
       </c>
@@ -8845,7 +8880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="15.75" thickBot="1">
+    <row r="19" spans="3:4" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
@@ -8853,7 +8888,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="15.75" thickBot="1">
+    <row r="20" spans="3:4" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="8" t="s">
         <v>11</v>
       </c>
@@ -8862,28 +8897,30 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
+  <mergeCells count="23">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:P16"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:P9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:P10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:XFD3 A1:C2 F1:XFD1 D2:XFD2">
@@ -8954,35 +8991,35 @@
       <selection pane="topRight" activeCell="LS4" sqref="LS4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="49" max="49" width="9.28515625" customWidth="1"/>
-    <col min="51" max="54" width="9.140625" customWidth="1"/>
-    <col min="67" max="67" width="9.140625" customWidth="1"/>
-    <col min="72" max="73" width="9.140625" customWidth="1"/>
-    <col min="80" max="80" width="9.140625" customWidth="1"/>
-    <col min="90" max="95" width="9.140625" customWidth="1"/>
-    <col min="109" max="109" width="9.140625" customWidth="1"/>
-    <col min="124" max="124" width="9.140625" customWidth="1"/>
-    <col min="166" max="166" width="9.140625" customWidth="1"/>
-    <col min="169" max="169" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" customWidth="1"/>
+    <col min="49" max="49" width="9.265625" customWidth="1"/>
+    <col min="51" max="54" width="9.1328125" customWidth="1"/>
+    <col min="67" max="67" width="9.1328125" customWidth="1"/>
+    <col min="72" max="73" width="9.1328125" customWidth="1"/>
+    <col min="80" max="80" width="9.1328125" customWidth="1"/>
+    <col min="90" max="95" width="9.1328125" customWidth="1"/>
+    <col min="109" max="109" width="9.1328125" customWidth="1"/>
+    <col min="124" max="124" width="9.1328125" customWidth="1"/>
+    <col min="166" max="166" width="9.1328125" customWidth="1"/>
+    <col min="169" max="169" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:331" s="45" customFormat="1" ht="120" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:331" s="48" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:331" s="12" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:331" s="12" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:331" s="28" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:331" s="28" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -9004,10 +9041,10 @@
       <c r="G3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="44"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="27">
         <f>Data!F2</f>
         <v>0</v>
@@ -10297,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:331" ht="15.75">
+    <row r="4" spans="1:331" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
@@ -11622,12 +11659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:331" ht="15.75" thickBot="1">
+    <row r="5" spans="1:331" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:331" ht="16.5" thickBot="1">
+    <row r="6" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
         <f ca="1">OFFSET(A3,A5,0,1,1)</f>
         <v>pH</v>
@@ -12953,53 +12990,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="48" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="54" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>16</v>
       </c>
@@ -13015,7 +13052,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>17</v>
       </c>
@@ -13031,101 +13068,101 @@
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="54" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="56"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="54" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="56"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="59"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="47" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="47" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
